--- a/مشروع الجداول/الجدول الرئيسي.xlsx
+++ b/مشروع الجداول/الجدول الرئيسي.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\محمد\مشروع الجداول\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAD1687-2B7F-4656-B2E7-8A5AAFB61178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D51168-CFB0-42DB-A18C-274594E75619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC4EF601-7318-4185-979A-6AB2401E7BC7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>اليوم</t>
   </si>
@@ -256,13 +256,16 @@
   </si>
   <si>
     <t>بدنيــــــة</t>
+  </si>
+  <si>
+    <t>رقم:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +359,11 @@
       <color theme="1"/>
       <name val="Marhey"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="El Messiri SemiBold"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -383,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -469,11 +477,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,20 +537,14 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -544,13 +555,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4128BEB5-AD28-4D08-84F4-31638494CA8C}">
   <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5546875" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -886,112 +909,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="18" t="s">
+      <c r="A1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="R1" s="18" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="R1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
       <c r="AM1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="28"/>
+      <c r="C2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
       <c r="AM2" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19" t="s">
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="26" t="s">
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="25" t="s">
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="23" t="s">
         <v>63</v>
       </c>
       <c r="AM3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AN3" s="20" t="s">
+      <c r="AN3" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="4">
         <v>7</v>
       </c>
@@ -1097,11 +1124,11 @@
       <c r="AK4" s="5">
         <v>1</v>
       </c>
-      <c r="AL4" s="25"/>
+      <c r="AL4" s="23"/>
       <c r="AM4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AN4" s="20"/>
+      <c r="AN4" s="22"/>
     </row>
     <row r="5" spans="1:40" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
@@ -1144,7 +1171,7 @@
       <c r="AI5" s="14"/>
       <c r="AJ5" s="14"/>
       <c r="AK5" s="14"/>
-      <c r="AL5" s="21" t="s">
+      <c r="AL5" s="19" t="s">
         <v>70</v>
       </c>
       <c r="AM5" s="9" t="s">
@@ -1195,7 +1222,7 @@
       <c r="AI6" s="14"/>
       <c r="AJ6" s="14"/>
       <c r="AK6" s="14"/>
-      <c r="AL6" s="22"/>
+      <c r="AL6" s="20"/>
       <c r="AM6" s="8" t="s">
         <v>3</v>
       </c>
@@ -1244,7 +1271,7 @@
       <c r="AI7" s="14"/>
       <c r="AJ7" s="14"/>
       <c r="AK7" s="14"/>
-      <c r="AL7" s="22"/>
+      <c r="AL7" s="20"/>
       <c r="AM7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1293,7 +1320,7 @@
       <c r="AI8" s="14"/>
       <c r="AJ8" s="14"/>
       <c r="AK8" s="14"/>
-      <c r="AL8" s="22"/>
+      <c r="AL8" s="20"/>
       <c r="AM8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1369,7 @@
       <c r="AI9" s="14"/>
       <c r="AJ9" s="14"/>
       <c r="AK9" s="14"/>
-      <c r="AL9" s="23"/>
+      <c r="AL9" s="21"/>
       <c r="AM9" s="8" t="s">
         <v>6</v>
       </c>
@@ -1391,7 +1418,7 @@
       <c r="AI10" s="14"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="14"/>
-      <c r="AL10" s="21" t="s">
+      <c r="AL10" s="19" t="s">
         <v>71</v>
       </c>
       <c r="AM10" s="9" t="s">
@@ -1442,7 +1469,7 @@
       <c r="AI11" s="14"/>
       <c r="AJ11" s="14"/>
       <c r="AK11" s="14"/>
-      <c r="AL11" s="22"/>
+      <c r="AL11" s="20"/>
       <c r="AM11" s="8" t="s">
         <v>8</v>
       </c>
@@ -1491,7 +1518,7 @@
       <c r="AI12" s="14"/>
       <c r="AJ12" s="14"/>
       <c r="AK12" s="14"/>
-      <c r="AL12" s="22"/>
+      <c r="AL12" s="20"/>
       <c r="AM12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1567,7 @@
       <c r="AI13" s="14"/>
       <c r="AJ13" s="14"/>
       <c r="AK13" s="14"/>
-      <c r="AL13" s="22"/>
+      <c r="AL13" s="20"/>
       <c r="AM13" s="8" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1616,7 @@
       <c r="AI14" s="14"/>
       <c r="AJ14" s="14"/>
       <c r="AK14" s="14"/>
-      <c r="AL14" s="22"/>
+      <c r="AL14" s="20"/>
       <c r="AM14" s="8" t="s">
         <v>11</v>
       </c>
@@ -1638,7 +1665,7 @@
       <c r="AI15" s="14"/>
       <c r="AJ15" s="14"/>
       <c r="AK15" s="14"/>
-      <c r="AL15" s="22"/>
+      <c r="AL15" s="20"/>
       <c r="AM15" s="8" t="s">
         <v>12</v>
       </c>
@@ -1687,7 +1714,7 @@
       <c r="AI16" s="14"/>
       <c r="AJ16" s="14"/>
       <c r="AK16" s="14"/>
-      <c r="AL16" s="22"/>
+      <c r="AL16" s="20"/>
       <c r="AM16" s="8" t="s">
         <v>13</v>
       </c>
@@ -1736,7 +1763,7 @@
       <c r="AI17" s="14"/>
       <c r="AJ17" s="14"/>
       <c r="AK17" s="14"/>
-      <c r="AL17" s="23"/>
+      <c r="AL17" s="21"/>
       <c r="AM17" s="8" t="s">
         <v>14</v>
       </c>
@@ -1785,7 +1812,7 @@
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
       <c r="AK18" s="14"/>
-      <c r="AL18" s="21" t="s">
+      <c r="AL18" s="19" t="s">
         <v>72</v>
       </c>
       <c r="AM18" s="9" t="s">
@@ -1836,7 +1863,7 @@
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
       <c r="AK19" s="14"/>
-      <c r="AL19" s="22"/>
+      <c r="AL19" s="20"/>
       <c r="AM19" s="8" t="s">
         <v>16</v>
       </c>
@@ -1885,7 +1912,7 @@
       <c r="AI20" s="14"/>
       <c r="AJ20" s="14"/>
       <c r="AK20" s="14"/>
-      <c r="AL20" s="22"/>
+      <c r="AL20" s="20"/>
       <c r="AM20" s="8" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +1961,7 @@
       <c r="AI21" s="14"/>
       <c r="AJ21" s="14"/>
       <c r="AK21" s="14"/>
-      <c r="AL21" s="22"/>
+      <c r="AL21" s="20"/>
       <c r="AM21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1983,7 +2010,7 @@
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
       <c r="AK22" s="14"/>
-      <c r="AL22" s="22"/>
+      <c r="AL22" s="20"/>
       <c r="AM22" s="8" t="s">
         <v>19</v>
       </c>
@@ -2032,7 +2059,7 @@
       <c r="AI23" s="14"/>
       <c r="AJ23" s="14"/>
       <c r="AK23" s="14"/>
-      <c r="AL23" s="22"/>
+      <c r="AL23" s="20"/>
       <c r="AM23" s="8" t="s">
         <v>20</v>
       </c>
@@ -2081,7 +2108,7 @@
       <c r="AI24" s="14"/>
       <c r="AJ24" s="14"/>
       <c r="AK24" s="14"/>
-      <c r="AL24" s="23"/>
+      <c r="AL24" s="21"/>
       <c r="AM24" s="8" t="s">
         <v>21</v>
       </c>
@@ -2130,7 +2157,7 @@
       <c r="AI25" s="14"/>
       <c r="AJ25" s="14"/>
       <c r="AK25" s="14"/>
-      <c r="AL25" s="24" t="s">
+      <c r="AL25" s="18" t="s">
         <v>69</v>
       </c>
       <c r="AM25" s="9" t="s">
@@ -2181,7 +2208,7 @@
       <c r="AI26" s="14"/>
       <c r="AJ26" s="14"/>
       <c r="AK26" s="14"/>
-      <c r="AL26" s="24"/>
+      <c r="AL26" s="18"/>
       <c r="AM26" s="8" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +2257,7 @@
       <c r="AI27" s="14"/>
       <c r="AJ27" s="14"/>
       <c r="AK27" s="14"/>
-      <c r="AL27" s="24"/>
+      <c r="AL27" s="18"/>
       <c r="AM27" s="8" t="s">
         <v>24</v>
       </c>
@@ -2279,7 +2306,7 @@
       <c r="AI28" s="14"/>
       <c r="AJ28" s="14"/>
       <c r="AK28" s="14"/>
-      <c r="AL28" s="24"/>
+      <c r="AL28" s="18"/>
       <c r="AM28" s="8" t="s">
         <v>25</v>
       </c>
@@ -2328,7 +2355,7 @@
       <c r="AI29" s="14"/>
       <c r="AJ29" s="14"/>
       <c r="AK29" s="14"/>
-      <c r="AL29" s="24"/>
+      <c r="AL29" s="18"/>
       <c r="AM29" s="8" t="s">
         <v>26</v>
       </c>
@@ -2377,7 +2404,7 @@
       <c r="AI30" s="14"/>
       <c r="AJ30" s="14"/>
       <c r="AK30" s="14"/>
-      <c r="AL30" s="24"/>
+      <c r="AL30" s="18"/>
       <c r="AM30" s="8" t="s">
         <v>27</v>
       </c>
@@ -2426,7 +2453,7 @@
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
       <c r="AK31" s="14"/>
-      <c r="AL31" s="24"/>
+      <c r="AL31" s="18"/>
       <c r="AM31" s="8" t="s">
         <v>28</v>
       </c>
@@ -2475,7 +2502,7 @@
       <c r="AI32" s="14"/>
       <c r="AJ32" s="14"/>
       <c r="AK32" s="14"/>
-      <c r="AL32" s="24"/>
+      <c r="AL32" s="18"/>
       <c r="AM32" s="8" t="s">
         <v>29</v>
       </c>
@@ -2524,7 +2551,7 @@
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
       <c r="AK33" s="14"/>
-      <c r="AL33" s="24" t="s">
+      <c r="AL33" s="18" t="s">
         <v>73</v>
       </c>
       <c r="AM33" s="9" t="s">
@@ -2575,7 +2602,7 @@
       <c r="AI34" s="14"/>
       <c r="AJ34" s="14"/>
       <c r="AK34" s="14"/>
-      <c r="AL34" s="24"/>
+      <c r="AL34" s="18"/>
       <c r="AM34" s="8" t="s">
         <v>31</v>
       </c>
@@ -2624,7 +2651,7 @@
       <c r="AI35" s="14"/>
       <c r="AJ35" s="14"/>
       <c r="AK35" s="14"/>
-      <c r="AL35" s="24"/>
+      <c r="AL35" s="18"/>
       <c r="AM35" s="8" t="s">
         <v>32</v>
       </c>
@@ -2673,7 +2700,7 @@
       <c r="AI36" s="14"/>
       <c r="AJ36" s="14"/>
       <c r="AK36" s="14"/>
-      <c r="AL36" s="24"/>
+      <c r="AL36" s="18"/>
       <c r="AM36" s="8" t="s">
         <v>33</v>
       </c>
@@ -2722,7 +2749,7 @@
       <c r="AI37" s="14"/>
       <c r="AJ37" s="14"/>
       <c r="AK37" s="14"/>
-      <c r="AL37" s="24"/>
+      <c r="AL37" s="18"/>
       <c r="AM37" s="8" t="s">
         <v>34</v>
       </c>
@@ -2771,7 +2798,7 @@
       <c r="AI38" s="14"/>
       <c r="AJ38" s="14"/>
       <c r="AK38" s="14"/>
-      <c r="AL38" s="24" t="s">
+      <c r="AL38" s="18" t="s">
         <v>74</v>
       </c>
       <c r="AM38" s="9" t="s">
@@ -2822,7 +2849,7 @@
       <c r="AI39" s="14"/>
       <c r="AJ39" s="14"/>
       <c r="AK39" s="14"/>
-      <c r="AL39" s="24"/>
+      <c r="AL39" s="18"/>
       <c r="AM39" s="8" t="s">
         <v>36</v>
       </c>
@@ -2871,7 +2898,7 @@
       <c r="AI40" s="14"/>
       <c r="AJ40" s="14"/>
       <c r="AK40" s="14"/>
-      <c r="AL40" s="24"/>
+      <c r="AL40" s="18"/>
       <c r="AM40" s="8" t="s">
         <v>37</v>
       </c>
@@ -2920,7 +2947,7 @@
       <c r="AI41" s="14"/>
       <c r="AJ41" s="14"/>
       <c r="AK41" s="14"/>
-      <c r="AL41" s="24"/>
+      <c r="AL41" s="18"/>
       <c r="AM41" s="8" t="s">
         <v>38</v>
       </c>
@@ -2969,7 +2996,7 @@
       <c r="AI42" s="14"/>
       <c r="AJ42" s="14"/>
       <c r="AK42" s="14"/>
-      <c r="AL42" s="24" t="s">
+      <c r="AL42" s="18" t="s">
         <v>75</v>
       </c>
       <c r="AM42" s="9" t="s">
@@ -3020,7 +3047,7 @@
       <c r="AI43" s="14"/>
       <c r="AJ43" s="14"/>
       <c r="AK43" s="14"/>
-      <c r="AL43" s="24"/>
+      <c r="AL43" s="18"/>
       <c r="AM43" s="8" t="s">
         <v>40</v>
       </c>
@@ -3069,7 +3096,7 @@
       <c r="AI44" s="14"/>
       <c r="AJ44" s="14"/>
       <c r="AK44" s="14"/>
-      <c r="AL44" s="24"/>
+      <c r="AL44" s="18"/>
       <c r="AM44" s="8" t="s">
         <v>41</v>
       </c>
@@ -3118,7 +3145,7 @@
       <c r="AI45" s="14"/>
       <c r="AJ45" s="14"/>
       <c r="AK45" s="14"/>
-      <c r="AL45" s="24"/>
+      <c r="AL45" s="18"/>
       <c r="AM45" s="8" t="s">
         <v>42</v>
       </c>
@@ -3167,7 +3194,7 @@
       <c r="AI46" s="14"/>
       <c r="AJ46" s="14"/>
       <c r="AK46" s="14"/>
-      <c r="AL46" s="24" t="s">
+      <c r="AL46" s="18" t="s">
         <v>59</v>
       </c>
       <c r="AM46" s="9" t="s">
@@ -3218,7 +3245,7 @@
       <c r="AI47" s="14"/>
       <c r="AJ47" s="14"/>
       <c r="AK47" s="14"/>
-      <c r="AL47" s="24"/>
+      <c r="AL47" s="18"/>
       <c r="AM47" s="8" t="s">
         <v>44</v>
       </c>
@@ -3267,7 +3294,7 @@
       <c r="AI48" s="14"/>
       <c r="AJ48" s="14"/>
       <c r="AK48" s="14"/>
-      <c r="AL48" s="24" t="s">
+      <c r="AL48" s="18" t="s">
         <v>60</v>
       </c>
       <c r="AM48" s="9" t="s">
@@ -3318,7 +3345,7 @@
       <c r="AI49" s="14"/>
       <c r="AJ49" s="14"/>
       <c r="AK49" s="14"/>
-      <c r="AL49" s="24"/>
+      <c r="AL49" s="18"/>
       <c r="AM49" s="8" t="s">
         <v>46</v>
       </c>
@@ -3367,7 +3394,7 @@
       <c r="AI50" s="14"/>
       <c r="AJ50" s="14"/>
       <c r="AK50" s="14"/>
-      <c r="AL50" s="21" t="s">
+      <c r="AL50" s="19" t="s">
         <v>76</v>
       </c>
       <c r="AM50" s="9" t="s">
@@ -3418,7 +3445,7 @@
       <c r="AI51" s="14"/>
       <c r="AJ51" s="14"/>
       <c r="AK51" s="14"/>
-      <c r="AL51" s="22"/>
+      <c r="AL51" s="20"/>
       <c r="AM51" s="8" t="s">
         <v>48</v>
       </c>
@@ -3467,7 +3494,7 @@
       <c r="AI52" s="14"/>
       <c r="AJ52" s="14"/>
       <c r="AK52" s="14"/>
-      <c r="AL52" s="22"/>
+      <c r="AL52" s="20"/>
       <c r="AM52" s="8" t="s">
         <v>49</v>
       </c>
@@ -3516,7 +3543,7 @@
       <c r="AI53" s="14"/>
       <c r="AJ53" s="14"/>
       <c r="AK53" s="14"/>
-      <c r="AL53" s="23"/>
+      <c r="AL53" s="21"/>
       <c r="AM53" s="8" t="s">
         <v>50</v>
       </c>
@@ -3576,7 +3603,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="R1:W2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="Q3:W3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AL5:AL9"/>
+    <mergeCell ref="AL10:AL17"/>
+    <mergeCell ref="AL18:AL24"/>
+    <mergeCell ref="AL25:AL32"/>
+    <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="X3:AD3"/>
     <mergeCell ref="AE3:AK3"/>
     <mergeCell ref="AL46:AL47"/>
@@ -3585,20 +3627,6 @@
     <mergeCell ref="AL33:AL37"/>
     <mergeCell ref="AL38:AL41"/>
     <mergeCell ref="AL42:AL45"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AL5:AL9"/>
-    <mergeCell ref="AL10:AL17"/>
-    <mergeCell ref="AL18:AL24"/>
-    <mergeCell ref="AL25:AL32"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="R1:W2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="Q3:W3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
